--- a/作业完成情况汇总-10.xlsx
+++ b/作业完成情况汇总-10.xlsx
@@ -229,10 +229,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -264,6 +264,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -287,6 +325,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -305,9 +350,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -328,51 +373,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,22 +395,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,12 +429,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -447,54 +507,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -531,30 +591,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -574,42 +610,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,6 +720,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -744,17 +755,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -769,10 +769,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,133 +781,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="13"/>

--- a/作业完成情况汇总-10.xlsx
+++ b/作业完成情况汇总-10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="13665"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -229,10 +229,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -264,44 +264,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -325,13 +287,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -350,9 +305,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -373,14 +328,51 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,14 +387,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,6 +429,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -465,18 +489,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -490,126 +610,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,17 +720,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -755,6 +744,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -769,10 +769,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,133 +781,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1275,7 +1275,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1738,7 +1738,9 @@
         <v>8</v>
       </c>
       <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="G19" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="H19" s="9"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
@@ -1858,7 +1860,9 @@
         <v>8</v>
       </c>
       <c r="F24" s="9"/>
-      <c r="G24" s="11"/>
+      <c r="G24" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="H24" s="9"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>

--- a/作业完成情况汇总-10.xlsx
+++ b/作业完成情况汇总-10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="27765" windowHeight="13665"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -229,10 +229,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -264,6 +264,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -287,6 +325,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -305,9 +350,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -328,51 +373,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,22 +395,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,12 +429,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -447,54 +507,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -531,30 +591,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -574,42 +610,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,6 +720,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -744,17 +755,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -769,10 +769,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,133 +781,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1275,7 +1275,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1738,9 +1738,7 @@
         <v>8</v>
       </c>
       <c r="F19" s="9"/>
-      <c r="G19" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
@@ -1860,9 +1858,7 @@
         <v>8</v>
       </c>
       <c r="F24" s="9"/>
-      <c r="G24" s="11" t="s">
-        <v>8</v>
-      </c>
+      <c r="G24" s="11"/>
       <c r="H24" s="9"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>

--- a/作业完成情况汇总-10.xlsx
+++ b/作业完成情况汇总-10.xlsx
@@ -229,10 +229,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -264,44 +264,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -325,13 +287,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -350,9 +305,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -373,14 +328,51 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,14 +387,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,6 +429,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -465,18 +489,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -490,126 +610,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,17 +720,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -755,6 +744,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -769,10 +769,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,133 +781,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="13"/>

--- a/作业完成情况汇总-10.xlsx
+++ b/作业完成情况汇总-10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
   <si>
     <t>WHJ171103班晚自习作业完成情况汇总表</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>蔡林</t>
+  </si>
+  <si>
+    <t>卡在api</t>
   </si>
   <si>
     <t>许寒</t>
@@ -230,9 +233,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -266,14 +269,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,22 +314,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,14 +325,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -373,6 +345,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -386,8 +365,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,7 +398,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,6 +450,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -459,138 +594,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -598,12 +607,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,41 +667,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,17 +687,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,6 +715,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -761,6 +753,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -769,145 +772,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1278,8 +1281,8 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1646,8 +1649,12 @@
         <v>8</v>
       </c>
       <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
       <c r="K15" s="14"/>
@@ -1658,13 +1665,13 @@
     <row r="16" ht="25" customHeight="1" spans="1:14">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>12</v>
@@ -1684,7 +1691,7 @@
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>20</v>
@@ -1706,7 +1713,7 @@
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>8</v>
@@ -1732,7 +1739,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>8</v>
@@ -1758,7 +1765,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>8</v>
@@ -1780,13 +1787,13 @@
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>8</v>
@@ -1804,10 +1811,10 @@
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="12" t="s">
@@ -1826,7 +1833,7 @@
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>8</v>
@@ -1840,7 +1847,7 @@
         <v>12</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
@@ -1854,7 +1861,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>8</v>
@@ -1880,7 +1887,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>8</v>
@@ -1902,13 +1909,13 @@
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>8</v>
@@ -1926,7 +1933,7 @@
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>8</v>
@@ -1950,10 +1957,10 @@
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="12" t="s">
@@ -1974,7 +1981,7 @@
         <v>14</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>8</v>
@@ -1998,13 +2005,13 @@
         <v>16</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>8</v>
@@ -2014,7 +2021,7 @@
         <v>8</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
@@ -2026,13 +2033,13 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>8</v>
@@ -2051,13 +2058,13 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>8</v>
@@ -2075,13 +2082,13 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>12</v>
@@ -2091,7 +2098,7 @@
         <v>12</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I33" s="13"/>
       <c r="J33" s="13"/>
@@ -2105,13 +2112,13 @@
         <v>14</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>8</v>
@@ -2121,7 +2128,7 @@
         <v>8</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
@@ -2135,13 +2142,13 @@
         <v>16</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>12</v>
@@ -2161,13 +2168,13 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>8</v>
@@ -2185,13 +2192,13 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>12</v>
@@ -2209,13 +2216,13 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>8</v>
